--- a/TemplateGOTests/data/hyperlink.xlsx
+++ b/TemplateGOTests/data/hyperlink.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ECEB81-2202-489A-ACE1-DC56D685EA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F3B64-09F6-4707-BD83-2896BE1BF72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="60" windowWidth="19890" windowHeight="14880" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
+    <workbookView xWindow="2730" yWindow="1425" windowWidth="18300" windowHeight="14775" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="已存在链接" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>链接地址应该会替换为新的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,22 @@
   </si>
   <si>
     <t>这个会加上链接${link1|link}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容显示为“这是链接内容”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容显示为“Home Page”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${link1|link:content=content}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${link1|link:content="Home Page"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A84023-863D-424B-8F28-AA97F17132F8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -579,7 +595,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A9" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -623,6 +639,30 @@
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
